--- a/US/data/CBS/NFIB/Plans to Increase Employment.xlsx
+++ b/US/data/CBS/NFIB/Plans to Increase Employment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20386"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9E85135-07BC-40A9-B862-7565E699AFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1468A0E-F896-44AF-824D-52983AF7FF4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7050" yWindow="1575" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="18195" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="474">
   <si>
     <t>Month/Year</t>
   </si>
@@ -247,12 +247,12 @@
     <t>1990/12/1</t>
   </si>
   <si>
+    <t>1991/1/1</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>1991/1/1</t>
-  </si>
-  <si>
     <t>1991/2/1</t>
   </si>
   <si>
@@ -517,57 +517,57 @@
     <t>1997/12/1</t>
   </si>
   <si>
+    <t>1998/1/1</t>
+  </si>
+  <si>
+    <t>1998/2/1</t>
+  </si>
+  <si>
+    <t>1998/3/1</t>
+  </si>
+  <si>
+    <t>1998/4/1</t>
+  </si>
+  <si>
+    <t>1998/5/1</t>
+  </si>
+  <si>
+    <t>1998/6/1</t>
+  </si>
+  <si>
+    <t>1998/7/1</t>
+  </si>
+  <si>
+    <t>1998/8/1</t>
+  </si>
+  <si>
+    <t>1998/9/1</t>
+  </si>
+  <si>
+    <t>1998/10/1</t>
+  </si>
+  <si>
+    <t>1998/11/1</t>
+  </si>
+  <si>
+    <t>1998/12/1</t>
+  </si>
+  <si>
+    <t>1999/1/1</t>
+  </si>
+  <si>
+    <t>1999/2/1</t>
+  </si>
+  <si>
+    <t>1999/3/1</t>
+  </si>
+  <si>
+    <t>1999/4/1</t>
+  </si>
+  <si>
     <t>20</t>
   </si>
   <si>
-    <t>1998/1/1</t>
-  </si>
-  <si>
-    <t>1998/2/1</t>
-  </si>
-  <si>
-    <t>1998/3/1</t>
-  </si>
-  <si>
-    <t>1998/4/1</t>
-  </si>
-  <si>
-    <t>1998/5/1</t>
-  </si>
-  <si>
-    <t>1998/6/1</t>
-  </si>
-  <si>
-    <t>1998/7/1</t>
-  </si>
-  <si>
-    <t>1998/8/1</t>
-  </si>
-  <si>
-    <t>1998/9/1</t>
-  </si>
-  <si>
-    <t>1998/10/1</t>
-  </si>
-  <si>
-    <t>1998/11/1</t>
-  </si>
-  <si>
-    <t>1998/12/1</t>
-  </si>
-  <si>
-    <t>1999/1/1</t>
-  </si>
-  <si>
-    <t>1999/2/1</t>
-  </si>
-  <si>
-    <t>1999/3/1</t>
-  </si>
-  <si>
-    <t>1999/4/1</t>
-  </si>
-  <si>
     <t>1999/5/1</t>
   </si>
   <si>
@@ -595,720 +595,717 @@
     <t>1999/12/1</t>
   </si>
   <si>
+    <t>2000/1/1</t>
+  </si>
+  <si>
+    <t>2000/2/1</t>
+  </si>
+  <si>
+    <t>2000/3/1</t>
+  </si>
+  <si>
+    <t>2000/4/1</t>
+  </si>
+  <si>
+    <t>2000/5/1</t>
+  </si>
+  <si>
+    <t>2000/6/1</t>
+  </si>
+  <si>
+    <t>2000/7/1</t>
+  </si>
+  <si>
+    <t>2000/8/1</t>
+  </si>
+  <si>
+    <t>2000/9/1</t>
+  </si>
+  <si>
+    <t>2000/10/1</t>
+  </si>
+  <si>
+    <t>2000/11/1</t>
+  </si>
+  <si>
+    <t>2000/12/1</t>
+  </si>
+  <si>
+    <t>2001/1/1</t>
+  </si>
+  <si>
+    <t>2001/2/1</t>
+  </si>
+  <si>
+    <t>2001/3/1</t>
+  </si>
+  <si>
+    <t>2001/4/1</t>
+  </si>
+  <si>
+    <t>2001/5/1</t>
+  </si>
+  <si>
+    <t>2001/6/1</t>
+  </si>
+  <si>
+    <t>2001/7/1</t>
+  </si>
+  <si>
+    <t>2001/8/1</t>
+  </si>
+  <si>
+    <t>2001/9/1</t>
+  </si>
+  <si>
+    <t>2001/10/1</t>
+  </si>
+  <si>
+    <t>2001/11/1</t>
+  </si>
+  <si>
+    <t>2001/12/1</t>
+  </si>
+  <si>
+    <t>2002/1/1</t>
+  </si>
+  <si>
+    <t>2002/2/1</t>
+  </si>
+  <si>
+    <t>2002/3/1</t>
+  </si>
+  <si>
+    <t>2002/4/1</t>
+  </si>
+  <si>
+    <t>2002/5/1</t>
+  </si>
+  <si>
+    <t>2002/6/1</t>
+  </si>
+  <si>
+    <t>2002/7/1</t>
+  </si>
+  <si>
+    <t>2002/8/1</t>
+  </si>
+  <si>
+    <t>2002/9/1</t>
+  </si>
+  <si>
+    <t>2002/10/1</t>
+  </si>
+  <si>
+    <t>2002/11/1</t>
+  </si>
+  <si>
+    <t>2002/12/1</t>
+  </si>
+  <si>
+    <t>2003/1/1</t>
+  </si>
+  <si>
+    <t>2003/2/1</t>
+  </si>
+  <si>
+    <t>2003/3/1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2003/4/1</t>
+  </si>
+  <si>
+    <t>2003/5/1</t>
+  </si>
+  <si>
+    <t>2003/6/1</t>
+  </si>
+  <si>
+    <t>2003/7/1</t>
+  </si>
+  <si>
+    <t>2003/8/1</t>
+  </si>
+  <si>
+    <t>2003/9/1</t>
+  </si>
+  <si>
+    <t>2003/10/1</t>
+  </si>
+  <si>
+    <t>2003/11/1</t>
+  </si>
+  <si>
+    <t>2003/12/1</t>
+  </si>
+  <si>
+    <t>2004/1/1</t>
+  </si>
+  <si>
+    <t>2004/2/1</t>
+  </si>
+  <si>
+    <t>2004/3/1</t>
+  </si>
+  <si>
+    <t>2004/4/1</t>
+  </si>
+  <si>
+    <t>2004/5/1</t>
+  </si>
+  <si>
+    <t>2004/6/1</t>
+  </si>
+  <si>
+    <t>2004/7/1</t>
+  </si>
+  <si>
+    <t>2004/8/1</t>
+  </si>
+  <si>
+    <t>2004/9/1</t>
+  </si>
+  <si>
+    <t>2004/10/1</t>
+  </si>
+  <si>
+    <t>2004/11/1</t>
+  </si>
+  <si>
+    <t>2004/12/1</t>
+  </si>
+  <si>
+    <t>2005/1/1</t>
+  </si>
+  <si>
+    <t>2005/2/1</t>
+  </si>
+  <si>
+    <t>2005/3/1</t>
+  </si>
+  <si>
+    <t>2005/4/1</t>
+  </si>
+  <si>
+    <t>2005/5/1</t>
+  </si>
+  <si>
+    <t>2005/6/1</t>
+  </si>
+  <si>
+    <t>2005/7/1</t>
+  </si>
+  <si>
+    <t>2005/8/1</t>
+  </si>
+  <si>
+    <t>2005/9/1</t>
+  </si>
+  <si>
+    <t>2005/10/1</t>
+  </si>
+  <si>
+    <t>2005/11/1</t>
+  </si>
+  <si>
+    <t>2005/12/1</t>
+  </si>
+  <si>
+    <t>2006/1/1</t>
+  </si>
+  <si>
+    <t>2006/2/1</t>
+  </si>
+  <si>
+    <t>2006/3/1</t>
+  </si>
+  <si>
+    <t>2006/4/1</t>
+  </si>
+  <si>
+    <t>2006/5/1</t>
+  </si>
+  <si>
+    <t>2006/6/1</t>
+  </si>
+  <si>
+    <t>2006/7/1</t>
+  </si>
+  <si>
+    <t>2006/8/1</t>
+  </si>
+  <si>
+    <t>2006/9/1</t>
+  </si>
+  <si>
+    <t>2006/10/1</t>
+  </si>
+  <si>
+    <t>2006/11/1</t>
+  </si>
+  <si>
+    <t>2006/12/1</t>
+  </si>
+  <si>
+    <t>2007/1/1</t>
+  </si>
+  <si>
+    <t>2007/2/1</t>
+  </si>
+  <si>
+    <t>2007/3/1</t>
+  </si>
+  <si>
+    <t>2007/4/1</t>
+  </si>
+  <si>
+    <t>2007/5/1</t>
+  </si>
+  <si>
+    <t>2007/6/1</t>
+  </si>
+  <si>
+    <t>2007/7/1</t>
+  </si>
+  <si>
+    <t>2007/8/1</t>
+  </si>
+  <si>
+    <t>2007/9/1</t>
+  </si>
+  <si>
+    <t>2007/10/1</t>
+  </si>
+  <si>
+    <t>2007/11/1</t>
+  </si>
+  <si>
+    <t>2007/12/1</t>
+  </si>
+  <si>
+    <t>2008/1/1</t>
+  </si>
+  <si>
+    <t>2008/2/1</t>
+  </si>
+  <si>
+    <t>2008/3/1</t>
+  </si>
+  <si>
+    <t>2008/4/1</t>
+  </si>
+  <si>
+    <t>2008/5/1</t>
+  </si>
+  <si>
+    <t>2008/6/1</t>
+  </si>
+  <si>
+    <t>2008/7/1</t>
+  </si>
+  <si>
+    <t>2008/8/1</t>
+  </si>
+  <si>
+    <t>2008/9/1</t>
+  </si>
+  <si>
+    <t>2008/10/1</t>
+  </si>
+  <si>
+    <t>2008/11/1</t>
+  </si>
+  <si>
+    <t>-5</t>
+  </si>
+  <si>
+    <t>2008/12/1</t>
+  </si>
+  <si>
+    <t>-7</t>
+  </si>
+  <si>
+    <t>2009/1/1</t>
+  </si>
+  <si>
+    <t>2009/2/1</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>2009/3/1</t>
+  </si>
+  <si>
+    <t>-8</t>
+  </si>
+  <si>
+    <t>2009/4/1</t>
+  </si>
+  <si>
+    <t>-4</t>
+  </si>
+  <si>
+    <t>2009/5/1</t>
+  </si>
+  <si>
+    <t>2009/6/1</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>2009/7/1</t>
+  </si>
+  <si>
+    <t>2009/8/1</t>
+  </si>
+  <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>2009/9/1</t>
+  </si>
+  <si>
+    <t>2009/10/1</t>
+  </si>
+  <si>
+    <t>2009/11/1</t>
+  </si>
+  <si>
+    <t>2009/12/1</t>
+  </si>
+  <si>
+    <t>2010/1/1</t>
+  </si>
+  <si>
+    <t>2010/2/1</t>
+  </si>
+  <si>
+    <t>2010/3/1</t>
+  </si>
+  <si>
+    <t>2010/4/1</t>
+  </si>
+  <si>
+    <t>2010/5/1</t>
+  </si>
+  <si>
+    <t>2010/6/1</t>
+  </si>
+  <si>
+    <t>2010/7/1</t>
+  </si>
+  <si>
+    <t>2010/8/1</t>
+  </si>
+  <si>
+    <t>2010/9/1</t>
+  </si>
+  <si>
+    <t>2010/10/1</t>
+  </si>
+  <si>
+    <t>2010/11/1</t>
+  </si>
+  <si>
+    <t>2010/12/1</t>
+  </si>
+  <si>
+    <t>2011/1/1</t>
+  </si>
+  <si>
+    <t>2011/2/1</t>
+  </si>
+  <si>
+    <t>2011/3/1</t>
+  </si>
+  <si>
+    <t>2011/4/1</t>
+  </si>
+  <si>
+    <t>2011/5/1</t>
+  </si>
+  <si>
+    <t>2011/6/1</t>
+  </si>
+  <si>
+    <t>2011/7/1</t>
+  </si>
+  <si>
+    <t>2011/8/1</t>
+  </si>
+  <si>
+    <t>2011/9/1</t>
+  </si>
+  <si>
+    <t>2011/10/1</t>
+  </si>
+  <si>
+    <t>2011/11/1</t>
+  </si>
+  <si>
+    <t>2011/12/1</t>
+  </si>
+  <si>
+    <t>2012/1/1</t>
+  </si>
+  <si>
+    <t>2012/2/1</t>
+  </si>
+  <si>
+    <t>2012/3/1</t>
+  </si>
+  <si>
+    <t>2012/4/1</t>
+  </si>
+  <si>
+    <t>2012/5/1</t>
+  </si>
+  <si>
+    <t>2012/6/1</t>
+  </si>
+  <si>
+    <t>2012/7/1</t>
+  </si>
+  <si>
+    <t>2012/8/1</t>
+  </si>
+  <si>
+    <t>2012/9/1</t>
+  </si>
+  <si>
+    <t>2012/10/1</t>
+  </si>
+  <si>
+    <t>2012/11/1</t>
+  </si>
+  <si>
+    <t>2012/12/1</t>
+  </si>
+  <si>
+    <t>2013/1/1</t>
+  </si>
+  <si>
+    <t>2013/2/1</t>
+  </si>
+  <si>
+    <t>2013/3/1</t>
+  </si>
+  <si>
+    <t>2013/4/1</t>
+  </si>
+  <si>
+    <t>2013/5/1</t>
+  </si>
+  <si>
+    <t>2013/6/1</t>
+  </si>
+  <si>
+    <t>2013/7/1</t>
+  </si>
+  <si>
+    <t>2013/8/1</t>
+  </si>
+  <si>
+    <t>2013/9/1</t>
+  </si>
+  <si>
+    <t>2013/10/1</t>
+  </si>
+  <si>
+    <t>2013/11/1</t>
+  </si>
+  <si>
+    <t>2013/12/1</t>
+  </si>
+  <si>
+    <t>2014/1/1</t>
+  </si>
+  <si>
+    <t>2014/2/1</t>
+  </si>
+  <si>
+    <t>2014/3/1</t>
+  </si>
+  <si>
+    <t>2014/4/1</t>
+  </si>
+  <si>
+    <t>2014/5/1</t>
+  </si>
+  <si>
+    <t>2014/6/1</t>
+  </si>
+  <si>
+    <t>2014/7/1</t>
+  </si>
+  <si>
+    <t>2014/8/1</t>
+  </si>
+  <si>
+    <t>2014/9/1</t>
+  </si>
+  <si>
+    <t>2014/10/1</t>
+  </si>
+  <si>
+    <t>2014/11/1</t>
+  </si>
+  <si>
+    <t>2014/12/1</t>
+  </si>
+  <si>
+    <t>2015/1/1</t>
+  </si>
+  <si>
+    <t>2015/2/1</t>
+  </si>
+  <si>
+    <t>2015/3/1</t>
+  </si>
+  <si>
+    <t>2015/4/1</t>
+  </si>
+  <si>
+    <t>2015/5/1</t>
+  </si>
+  <si>
+    <t>2015/6/1</t>
+  </si>
+  <si>
+    <t>2015/7/1</t>
+  </si>
+  <si>
+    <t>2015/8/1</t>
+  </si>
+  <si>
+    <t>2015/9/1</t>
+  </si>
+  <si>
+    <t>2015/10/1</t>
+  </si>
+  <si>
+    <t>2015/11/1</t>
+  </si>
+  <si>
+    <t>2015/12/1</t>
+  </si>
+  <si>
+    <t>2016/1/1</t>
+  </si>
+  <si>
+    <t>2016/2/1</t>
+  </si>
+  <si>
+    <t>2016/3/1</t>
+  </si>
+  <si>
+    <t>2016/4/1</t>
+  </si>
+  <si>
+    <t>2016/5/1</t>
+  </si>
+  <si>
+    <t>2016/6/1</t>
+  </si>
+  <si>
+    <t>2016/7/1</t>
+  </si>
+  <si>
+    <t>2016/8/1</t>
+  </si>
+  <si>
+    <t>2016/9/1</t>
+  </si>
+  <si>
+    <t>2016/10/1</t>
+  </si>
+  <si>
+    <t>2016/11/1</t>
+  </si>
+  <si>
+    <t>2016/12/1</t>
+  </si>
+  <si>
+    <t>2017/1/1</t>
+  </si>
+  <si>
+    <t>2017/2/1</t>
+  </si>
+  <si>
+    <t>2017/3/1</t>
+  </si>
+  <si>
+    <t>2017/4/1</t>
+  </si>
+  <si>
+    <t>2017/5/1</t>
+  </si>
+  <si>
+    <t>2017/6/1</t>
+  </si>
+  <si>
+    <t>2017/7/1</t>
+  </si>
+  <si>
+    <t>2017/8/1</t>
+  </si>
+  <si>
+    <t>2017/9/1</t>
+  </si>
+  <si>
+    <t>2017/10/1</t>
+  </si>
+  <si>
+    <t>2017/11/1</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>2017/12/1</t>
+  </si>
+  <si>
+    <t>2018/1/1</t>
+  </si>
+  <si>
+    <t>2018/2/1</t>
+  </si>
+  <si>
+    <t>2018/3/1</t>
+  </si>
+  <si>
+    <t>2018/4/1</t>
+  </si>
+  <si>
+    <t>2018/5/1</t>
+  </si>
+  <si>
+    <t>2018/6/1</t>
+  </si>
+  <si>
+    <t>2018/7/1</t>
+  </si>
+  <si>
+    <t>2018/8/1</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>2018/9/1</t>
+  </si>
+  <si>
+    <t>2018/10/1</t>
+  </si>
+  <si>
     <t>22</t>
   </si>
   <si>
-    <t>2000/1/1</t>
-  </si>
-  <si>
-    <t>2000/2/1</t>
-  </si>
-  <si>
-    <t>2000/3/1</t>
-  </si>
-  <si>
-    <t>2000/4/1</t>
-  </si>
-  <si>
-    <t>2000/5/1</t>
-  </si>
-  <si>
-    <t>2000/6/1</t>
-  </si>
-  <si>
-    <t>2000/7/1</t>
-  </si>
-  <si>
-    <t>2000/8/1</t>
-  </si>
-  <si>
-    <t>2000/9/1</t>
-  </si>
-  <si>
-    <t>2000/10/1</t>
-  </si>
-  <si>
-    <t>2000/11/1</t>
-  </si>
-  <si>
-    <t>2000/12/1</t>
-  </si>
-  <si>
-    <t>2001/1/1</t>
-  </si>
-  <si>
-    <t>2001/2/1</t>
-  </si>
-  <si>
-    <t>2001/3/1</t>
-  </si>
-  <si>
-    <t>2001/4/1</t>
-  </si>
-  <si>
-    <t>2001/5/1</t>
-  </si>
-  <si>
-    <t>2001/6/1</t>
-  </si>
-  <si>
-    <t>2001/7/1</t>
-  </si>
-  <si>
-    <t>2001/8/1</t>
-  </si>
-  <si>
-    <t>2001/9/1</t>
-  </si>
-  <si>
-    <t>2001/10/1</t>
-  </si>
-  <si>
-    <t>2001/11/1</t>
-  </si>
-  <si>
-    <t>2001/12/1</t>
-  </si>
-  <si>
-    <t>2002/1/1</t>
-  </si>
-  <si>
-    <t>2002/2/1</t>
-  </si>
-  <si>
-    <t>2002/3/1</t>
-  </si>
-  <si>
-    <t>2002/4/1</t>
-  </si>
-  <si>
-    <t>2002/5/1</t>
-  </si>
-  <si>
-    <t>2002/6/1</t>
-  </si>
-  <si>
-    <t>2002/7/1</t>
-  </si>
-  <si>
-    <t>2002/8/1</t>
-  </si>
-  <si>
-    <t>2002/9/1</t>
-  </si>
-  <si>
-    <t>2002/10/1</t>
-  </si>
-  <si>
-    <t>2002/11/1</t>
-  </si>
-  <si>
-    <t>2002/12/1</t>
-  </si>
-  <si>
-    <t>2003/1/1</t>
-  </si>
-  <si>
-    <t>2003/2/1</t>
-  </si>
-  <si>
-    <t>2003/3/1</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2003/4/1</t>
-  </si>
-  <si>
-    <t>2003/5/1</t>
-  </si>
-  <si>
-    <t>2003/6/1</t>
-  </si>
-  <si>
-    <t>2003/7/1</t>
-  </si>
-  <si>
-    <t>2003/8/1</t>
-  </si>
-  <si>
-    <t>2003/9/1</t>
-  </si>
-  <si>
-    <t>2003/10/1</t>
-  </si>
-  <si>
-    <t>2003/11/1</t>
-  </si>
-  <si>
-    <t>2003/12/1</t>
-  </si>
-  <si>
-    <t>2004/1/1</t>
-  </si>
-  <si>
-    <t>2004/2/1</t>
-  </si>
-  <si>
-    <t>2004/3/1</t>
-  </si>
-  <si>
-    <t>2004/4/1</t>
-  </si>
-  <si>
-    <t>2004/5/1</t>
-  </si>
-  <si>
-    <t>2004/6/1</t>
-  </si>
-  <si>
-    <t>2004/7/1</t>
-  </si>
-  <si>
-    <t>2004/8/1</t>
-  </si>
-  <si>
-    <t>2004/9/1</t>
-  </si>
-  <si>
-    <t>2004/10/1</t>
-  </si>
-  <si>
-    <t>2004/11/1</t>
-  </si>
-  <si>
-    <t>2004/12/1</t>
-  </si>
-  <si>
-    <t>2005/1/1</t>
-  </si>
-  <si>
-    <t>2005/2/1</t>
-  </si>
-  <si>
-    <t>2005/3/1</t>
-  </si>
-  <si>
-    <t>2005/4/1</t>
-  </si>
-  <si>
-    <t>2005/5/1</t>
-  </si>
-  <si>
-    <t>2005/6/1</t>
-  </si>
-  <si>
-    <t>2005/7/1</t>
-  </si>
-  <si>
-    <t>2005/8/1</t>
-  </si>
-  <si>
-    <t>2005/9/1</t>
-  </si>
-  <si>
-    <t>2005/10/1</t>
-  </si>
-  <si>
-    <t>2005/11/1</t>
-  </si>
-  <si>
-    <t>2005/12/1</t>
-  </si>
-  <si>
-    <t>2006/1/1</t>
-  </si>
-  <si>
-    <t>2006/2/1</t>
-  </si>
-  <si>
-    <t>2006/3/1</t>
-  </si>
-  <si>
-    <t>2006/4/1</t>
-  </si>
-  <si>
-    <t>2006/5/1</t>
-  </si>
-  <si>
-    <t>2006/6/1</t>
-  </si>
-  <si>
-    <t>2006/7/1</t>
-  </si>
-  <si>
-    <t>2006/8/1</t>
-  </si>
-  <si>
-    <t>2006/9/1</t>
-  </si>
-  <si>
-    <t>2006/10/1</t>
-  </si>
-  <si>
-    <t>2006/11/1</t>
-  </si>
-  <si>
-    <t>2006/12/1</t>
-  </si>
-  <si>
-    <t>2007/1/1</t>
-  </si>
-  <si>
-    <t>2007/2/1</t>
-  </si>
-  <si>
-    <t>2007/3/1</t>
-  </si>
-  <si>
-    <t>2007/4/1</t>
-  </si>
-  <si>
-    <t>2007/5/1</t>
-  </si>
-  <si>
-    <t>2007/6/1</t>
-  </si>
-  <si>
-    <t>2007/7/1</t>
-  </si>
-  <si>
-    <t>2007/8/1</t>
-  </si>
-  <si>
-    <t>2007/9/1</t>
-  </si>
-  <si>
-    <t>2007/10/1</t>
-  </si>
-  <si>
-    <t>2007/11/1</t>
-  </si>
-  <si>
-    <t>2007/12/1</t>
-  </si>
-  <si>
-    <t>2008/1/1</t>
-  </si>
-  <si>
-    <t>2008/2/1</t>
-  </si>
-  <si>
-    <t>2008/3/1</t>
-  </si>
-  <si>
-    <t>2008/4/1</t>
-  </si>
-  <si>
-    <t>2008/5/1</t>
-  </si>
-  <si>
-    <t>2008/6/1</t>
-  </si>
-  <si>
-    <t>2008/7/1</t>
-  </si>
-  <si>
-    <t>2008/8/1</t>
-  </si>
-  <si>
-    <t>2008/9/1</t>
-  </si>
-  <si>
-    <t>2008/10/1</t>
-  </si>
-  <si>
-    <t>2008/11/1</t>
-  </si>
-  <si>
-    <t>-5</t>
-  </si>
-  <si>
-    <t>2008/12/1</t>
-  </si>
-  <si>
-    <t>-6</t>
-  </si>
-  <si>
-    <t>2009/1/1</t>
-  </si>
-  <si>
-    <t>-7</t>
-  </si>
-  <si>
-    <t>2009/2/1</t>
-  </si>
-  <si>
-    <t>-3</t>
-  </si>
-  <si>
-    <t>2009/3/1</t>
-  </si>
-  <si>
-    <t>-8</t>
-  </si>
-  <si>
-    <t>2009/4/1</t>
-  </si>
-  <si>
-    <t>-4</t>
-  </si>
-  <si>
-    <t>2009/5/1</t>
-  </si>
-  <si>
-    <t>2009/6/1</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>2009/7/1</t>
-  </si>
-  <si>
-    <t>2009/8/1</t>
-  </si>
-  <si>
-    <t>-2</t>
-  </si>
-  <si>
-    <t>2009/9/1</t>
-  </si>
-  <si>
-    <t>2009/10/1</t>
-  </si>
-  <si>
-    <t>2009/11/1</t>
-  </si>
-  <si>
-    <t>2009/12/1</t>
-  </si>
-  <si>
-    <t>2010/1/1</t>
-  </si>
-  <si>
-    <t>2010/2/1</t>
-  </si>
-  <si>
-    <t>2010/3/1</t>
-  </si>
-  <si>
-    <t>2010/4/1</t>
-  </si>
-  <si>
-    <t>2010/5/1</t>
-  </si>
-  <si>
-    <t>2010/6/1</t>
-  </si>
-  <si>
-    <t>2010/7/1</t>
-  </si>
-  <si>
-    <t>2010/8/1</t>
-  </si>
-  <si>
-    <t>2010/9/1</t>
-  </si>
-  <si>
-    <t>2010/10/1</t>
-  </si>
-  <si>
-    <t>2010/11/1</t>
-  </si>
-  <si>
-    <t>2010/12/1</t>
-  </si>
-  <si>
-    <t>2011/1/1</t>
-  </si>
-  <si>
-    <t>2011/2/1</t>
-  </si>
-  <si>
-    <t>2011/3/1</t>
-  </si>
-  <si>
-    <t>2011/4/1</t>
-  </si>
-  <si>
-    <t>2011/5/1</t>
-  </si>
-  <si>
-    <t>2011/6/1</t>
-  </si>
-  <si>
-    <t>2011/7/1</t>
-  </si>
-  <si>
-    <t>2011/8/1</t>
-  </si>
-  <si>
-    <t>2011/9/1</t>
-  </si>
-  <si>
-    <t>2011/10/1</t>
-  </si>
-  <si>
-    <t>2011/11/1</t>
-  </si>
-  <si>
-    <t>2011/12/1</t>
-  </si>
-  <si>
-    <t>2012/1/1</t>
-  </si>
-  <si>
-    <t>2012/2/1</t>
-  </si>
-  <si>
-    <t>2012/3/1</t>
-  </si>
-  <si>
-    <t>2012/4/1</t>
-  </si>
-  <si>
-    <t>2012/5/1</t>
-  </si>
-  <si>
-    <t>2012/6/1</t>
-  </si>
-  <si>
-    <t>2012/7/1</t>
-  </si>
-  <si>
-    <t>2012/8/1</t>
-  </si>
-  <si>
-    <t>2012/9/1</t>
-  </si>
-  <si>
-    <t>2012/10/1</t>
-  </si>
-  <si>
-    <t>2012/11/1</t>
-  </si>
-  <si>
-    <t>2012/12/1</t>
-  </si>
-  <si>
-    <t>2013/1/1</t>
-  </si>
-  <si>
-    <t>2013/2/1</t>
-  </si>
-  <si>
-    <t>2013/3/1</t>
-  </si>
-  <si>
-    <t>2013/4/1</t>
-  </si>
-  <si>
-    <t>2013/5/1</t>
-  </si>
-  <si>
-    <t>2013/6/1</t>
-  </si>
-  <si>
-    <t>2013/7/1</t>
-  </si>
-  <si>
-    <t>2013/8/1</t>
-  </si>
-  <si>
-    <t>2013/9/1</t>
-  </si>
-  <si>
-    <t>2013/10/1</t>
-  </si>
-  <si>
-    <t>2013/11/1</t>
-  </si>
-  <si>
-    <t>2013/12/1</t>
-  </si>
-  <si>
-    <t>2014/1/1</t>
-  </si>
-  <si>
-    <t>2014/2/1</t>
-  </si>
-  <si>
-    <t>2014/3/1</t>
-  </si>
-  <si>
-    <t>2014/4/1</t>
-  </si>
-  <si>
-    <t>2014/5/1</t>
-  </si>
-  <si>
-    <t>2014/6/1</t>
-  </si>
-  <si>
-    <t>2014/7/1</t>
-  </si>
-  <si>
-    <t>2014/8/1</t>
-  </si>
-  <si>
-    <t>2014/9/1</t>
-  </si>
-  <si>
-    <t>2014/10/1</t>
-  </si>
-  <si>
-    <t>2014/11/1</t>
-  </si>
-  <si>
-    <t>2014/12/1</t>
-  </si>
-  <si>
-    <t>2015/1/1</t>
-  </si>
-  <si>
-    <t>2015/2/1</t>
-  </si>
-  <si>
-    <t>2015/3/1</t>
-  </si>
-  <si>
-    <t>2015/4/1</t>
-  </si>
-  <si>
-    <t>2015/5/1</t>
-  </si>
-  <si>
-    <t>2015/6/1</t>
-  </si>
-  <si>
-    <t>2015/7/1</t>
-  </si>
-  <si>
-    <t>2015/8/1</t>
-  </si>
-  <si>
-    <t>2015/9/1</t>
-  </si>
-  <si>
-    <t>2015/10/1</t>
-  </si>
-  <si>
-    <t>2015/11/1</t>
-  </si>
-  <si>
-    <t>2015/12/1</t>
-  </si>
-  <si>
-    <t>2016/1/1</t>
-  </si>
-  <si>
-    <t>2016/2/1</t>
-  </si>
-  <si>
-    <t>2016/3/1</t>
-  </si>
-  <si>
-    <t>2016/4/1</t>
-  </si>
-  <si>
-    <t>2016/5/1</t>
-  </si>
-  <si>
-    <t>2016/6/1</t>
-  </si>
-  <si>
-    <t>2016/7/1</t>
-  </si>
-  <si>
-    <t>2016/8/1</t>
-  </si>
-  <si>
-    <t>2016/9/1</t>
-  </si>
-  <si>
-    <t>2016/10/1</t>
-  </si>
-  <si>
-    <t>2016/11/1</t>
-  </si>
-  <si>
-    <t>2016/12/1</t>
-  </si>
-  <si>
-    <t>2017/1/1</t>
-  </si>
-  <si>
-    <t>2017/2/1</t>
-  </si>
-  <si>
-    <t>2017/3/1</t>
-  </si>
-  <si>
-    <t>2017/4/1</t>
-  </si>
-  <si>
-    <t>2017/5/1</t>
-  </si>
-  <si>
-    <t>2017/6/1</t>
-  </si>
-  <si>
-    <t>2017/7/1</t>
-  </si>
-  <si>
-    <t>2017/8/1</t>
-  </si>
-  <si>
-    <t>2017/9/1</t>
-  </si>
-  <si>
-    <t>2017/10/1</t>
-  </si>
-  <si>
-    <t>2017/11/1</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>2017/12/1</t>
-  </si>
-  <si>
-    <t>2018/1/1</t>
-  </si>
-  <si>
-    <t>2018/2/1</t>
-  </si>
-  <si>
-    <t>2018/3/1</t>
-  </si>
-  <si>
-    <t>2018/4/1</t>
-  </si>
-  <si>
-    <t>2018/5/1</t>
-  </si>
-  <si>
-    <t>2018/6/1</t>
-  </si>
-  <si>
-    <t>2018/7/1</t>
-  </si>
-  <si>
-    <t>2018/8/1</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>2018/9/1</t>
-  </si>
-  <si>
-    <t>2018/10/1</t>
-  </si>
-  <si>
     <t>2018/11/1</t>
   </si>
   <si>
@@ -1420,10 +1417,31 @@
     <t>32</t>
   </si>
   <si>
+    <t>2021/9/1</t>
+  </si>
+  <si>
     <t>2021/10/1</t>
   </si>
   <si>
+    <t>2021/11/1</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
     <t>2021/12/1</t>
+  </si>
+  <si>
+    <t>2022/1/1</t>
+  </si>
+  <si>
+    <t>2022/2/1</t>
+  </si>
+  <si>
+    <t>2022/3/1</t>
+  </si>
+  <si>
+    <t>2022/4/1</t>
   </si>
 </sst>
 </file>
@@ -1823,7 +1841,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B431"/>
+  <dimension ref="A1:B437"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1936,7 +1954,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2032,7 +2050,7 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2128,7 +2146,7 @@
         <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2224,7 +2242,7 @@
         <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -2320,15 +2338,15 @@
         <v>74</v>
       </c>
       <c r="B61" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" t="s">
         <v>76</v>
-      </c>
-      <c r="B62" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -2416,7 +2434,7 @@
         <v>87</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -2512,7 +2530,7 @@
         <v>99</v>
       </c>
       <c r="B85" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -2608,7 +2626,7 @@
         <v>111</v>
       </c>
       <c r="B97" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -2704,7 +2722,7 @@
         <v>125</v>
       </c>
       <c r="B109" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -2800,7 +2818,7 @@
         <v>139</v>
       </c>
       <c r="B121" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -2896,7 +2914,7 @@
         <v>151</v>
       </c>
       <c r="B133" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -2992,12 +3010,12 @@
         <v>164</v>
       </c>
       <c r="B145" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B146" t="s">
         <v>128</v>
@@ -3005,7 +3023,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B147" t="s">
         <v>115</v>
@@ -3013,7 +3031,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B148" t="s">
         <v>124</v>
@@ -3021,7 +3039,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B149" t="s">
         <v>128</v>
@@ -3029,7 +3047,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B150" t="s">
         <v>131</v>
@@ -3037,7 +3055,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B151" t="s">
         <v>124</v>
@@ -3045,7 +3063,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B152" t="s">
         <v>131</v>
@@ -3053,7 +3071,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B153" t="s">
         <v>131</v>
@@ -3061,7 +3079,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B154" t="s">
         <v>124</v>
@@ -3069,7 +3087,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B155" t="s">
         <v>128</v>
@@ -3077,7 +3095,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B156" t="s">
         <v>115</v>
@@ -3085,15 +3103,15 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B157" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B158" t="s">
         <v>115</v>
@@ -3101,7 +3119,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B159" t="s">
         <v>131</v>
@@ -3109,7 +3127,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B160" t="s">
         <v>115</v>
@@ -3117,10 +3135,10 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>180</v>
+      </c>
+      <c r="B161" t="s">
         <v>181</v>
-      </c>
-      <c r="B161" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -3184,12 +3202,12 @@
         <v>190</v>
       </c>
       <c r="B169" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B170" t="s">
         <v>128</v>
@@ -3197,7 +3215,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B171" t="s">
         <v>115</v>
@@ -3205,7 +3223,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B172" t="s">
         <v>115</v>
@@ -3213,7 +3231,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B173" t="s">
         <v>163</v>
@@ -3221,7 +3239,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B174" t="s">
         <v>31</v>
@@ -3229,7 +3247,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B175" t="s">
         <v>37</v>
@@ -3237,7 +3255,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B176" t="s">
         <v>128</v>
@@ -3245,7 +3263,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B177" t="s">
         <v>128</v>
@@ -3253,7 +3271,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B178" t="s">
         <v>128</v>
@@ -3261,7 +3279,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B179" t="s">
         <v>31</v>
@@ -3269,7 +3287,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B180" t="s">
         <v>27</v>
@@ -3277,15 +3295,15 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B182" t="s">
         <v>131</v>
@@ -3293,7 +3311,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B183" t="s">
         <v>7</v>
@@ -3301,7 +3319,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B184" t="s">
         <v>31</v>
@@ -3309,7 +3327,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B185" t="s">
         <v>7</v>
@@ -3317,7 +3335,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B186" t="s">
         <v>27</v>
@@ -3325,7 +3343,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B187" t="s">
         <v>11</v>
@@ -3333,7 +3351,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B188" t="s">
         <v>7</v>
@@ -3341,7 +3359,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B189" t="s">
         <v>115</v>
@@ -3349,7 +3367,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B190" t="s">
         <v>11</v>
@@ -3357,7 +3375,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B191" t="s">
         <v>5</v>
@@ -3365,7 +3383,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B192" t="s">
         <v>11</v>
@@ -3373,15 +3391,15 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B193" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B194" t="s">
         <v>27</v>
@@ -3389,7 +3407,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B195" t="s">
         <v>5</v>
@@ -3397,7 +3415,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B196" t="s">
         <v>37</v>
@@ -3405,7 +3423,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B197" t="s">
         <v>7</v>
@@ -3413,7 +3431,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B198" t="s">
         <v>7</v>
@@ -3421,7 +3439,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B199" t="s">
         <v>7</v>
@@ -3429,7 +3447,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B200" t="s">
         <v>11</v>
@@ -3437,7 +3455,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B201" t="s">
         <v>37</v>
@@ -3445,7 +3463,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B202" t="s">
         <v>5</v>
@@ -3453,7 +3471,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B203" t="s">
         <v>27</v>
@@ -3461,7 +3479,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B204" t="s">
         <v>13</v>
@@ -3469,15 +3487,15 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B205" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B206" t="s">
         <v>5</v>
@@ -3485,7 +3503,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B207" t="s">
         <v>20</v>
@@ -3493,15 +3511,15 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
+        <v>229</v>
+      </c>
+      <c r="B208" t="s">
         <v>230</v>
-      </c>
-      <c r="B208" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B209" t="s">
         <v>3</v>
@@ -3509,7 +3527,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B210" t="s">
         <v>3</v>
@@ -3517,7 +3535,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B211" t="s">
         <v>11</v>
@@ -3525,7 +3543,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B212" t="s">
         <v>37</v>
@@ -3533,7 +3551,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B213" t="s">
         <v>37</v>
@@ -3541,7 +3559,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B214" t="s">
         <v>11</v>
@@ -3549,7 +3567,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B215" t="s">
         <v>7</v>
@@ -3557,7 +3575,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B216" t="s">
         <v>27</v>
@@ -3565,15 +3583,15 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B217" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B218" t="s">
         <v>115</v>
@@ -3581,7 +3599,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B219" t="s">
         <v>7</v>
@@ -3589,7 +3607,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B220" t="s">
         <v>131</v>
@@ -3597,7 +3615,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B221" t="s">
         <v>131</v>
@@ -3605,7 +3623,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B222" t="s">
         <v>31</v>
@@ -3613,7 +3631,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B223" t="s">
         <v>31</v>
@@ -3621,7 +3639,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B224" t="s">
         <v>131</v>
@@ -3629,7 +3647,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B225" t="s">
         <v>124</v>
@@ -3637,7 +3655,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B226" t="s">
         <v>31</v>
@@ -3645,7 +3663,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B227" t="s">
         <v>131</v>
@@ -3653,7 +3671,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B228" t="s">
         <v>128</v>
@@ -3661,15 +3679,15 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B229" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B230" t="s">
         <v>31</v>
@@ -3677,7 +3695,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B231" t="s">
         <v>115</v>
@@ -3685,7 +3703,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B232" t="s">
         <v>37</v>
@@ -3693,7 +3711,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B233" t="s">
         <v>37</v>
@@ -3701,7 +3719,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B234" t="s">
         <v>115</v>
@@ -3709,7 +3727,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B235" t="s">
         <v>7</v>
@@ -3717,7 +3735,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B236" t="s">
         <v>31</v>
@@ -3725,7 +3743,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B237" t="s">
         <v>131</v>
@@ -3733,7 +3751,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B238" t="s">
         <v>124</v>
@@ -3741,7 +3759,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B239" t="s">
         <v>124</v>
@@ -3749,7 +3767,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B240" t="s">
         <v>37</v>
@@ -3757,15 +3775,15 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B241" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B242" t="s">
         <v>115</v>
@@ -3773,7 +3791,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B243" t="s">
         <v>115</v>
@@ -3781,7 +3799,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B244" t="s">
         <v>27</v>
@@ -3789,7 +3807,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B245" t="s">
         <v>124</v>
@@ -3797,7 +3815,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B246" t="s">
         <v>131</v>
@@ -3805,7 +3823,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B247" t="s">
         <v>3</v>
@@ -3813,7 +3831,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B248" t="s">
         <v>131</v>
@@ -3821,7 +3839,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B249" t="s">
         <v>131</v>
@@ -3829,7 +3847,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B250" t="s">
         <v>124</v>
@@ -3837,7 +3855,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B251" t="s">
         <v>115</v>
@@ -3845,7 +3863,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B252" t="s">
         <v>128</v>
@@ -3853,15 +3871,15 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B253" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B254" t="s">
         <v>115</v>
@@ -3869,7 +3887,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B255" t="s">
         <v>7</v>
@@ -3877,7 +3895,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B256" t="s">
         <v>31</v>
@@ -3885,7 +3903,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B257" t="s">
         <v>31</v>
@@ -3893,7 +3911,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B258" t="s">
         <v>31</v>
@@ -3901,7 +3919,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B259" t="s">
         <v>37</v>
@@ -3909,7 +3927,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B260" t="s">
         <v>7</v>
@@ -3917,7 +3935,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B261" t="s">
         <v>7</v>
@@ -3925,7 +3943,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B262" t="s">
         <v>31</v>
@@ -3933,7 +3951,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B263" t="s">
         <v>27</v>
@@ -3941,7 +3959,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B264" t="s">
         <v>11</v>
@@ -3949,15 +3967,15 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B265" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B266" t="s">
         <v>13</v>
@@ -3965,7 +3983,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B267" t="s">
         <v>27</v>
@@ -3973,7 +3991,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B268" t="s">
         <v>15</v>
@@ -3981,7 +3999,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B269" t="s">
         <v>20</v>
@@ -3989,15 +4007,15 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B270" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B271" t="s">
         <v>15</v>
@@ -4005,7 +4023,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B272" t="s">
         <v>15</v>
@@ -4013,7 +4031,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B273" t="s">
         <v>5</v>
@@ -4021,7 +4039,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B274" t="s">
         <v>5</v>
@@ -4029,7 +4047,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B275" t="s">
         <v>73</v>
@@ -4037,135 +4055,135 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
+        <v>298</v>
+      </c>
+      <c r="B276" t="s">
         <v>299</v>
-      </c>
-      <c r="B276" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
+        <v>300</v>
+      </c>
+      <c r="B277" t="s">
         <v>301</v>
-      </c>
-      <c r="B277" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B278" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B279" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B280" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B281" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B282" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B283" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B284" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B285" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B286" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B287" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B288" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B289" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B290" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B291" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B292" t="s">
         <v>73</v>
@@ -4173,7 +4191,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B293" t="s">
         <v>73</v>
@@ -4181,7 +4199,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B294" t="s">
         <v>17</v>
@@ -4189,15 +4207,15 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B295" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B296" t="s">
         <v>17</v>
@@ -4205,47 +4223,47 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B297" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B298" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B299" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B300" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B301" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B302" t="s">
         <v>17</v>
@@ -4253,7 +4271,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B303" t="s">
         <v>15</v>
@@ -4261,7 +4279,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B304" t="s">
         <v>71</v>
@@ -4269,15 +4287,15 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B305" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B306" t="s">
         <v>73</v>
@@ -4285,15 +4303,15 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B307" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B308" t="s">
         <v>17</v>
@@ -4301,15 +4319,15 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B309" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B310" t="s">
         <v>71</v>
@@ -4317,15 +4335,15 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B311" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B312" t="s">
         <v>20</v>
@@ -4333,15 +4351,15 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B313" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B314" t="s">
         <v>71</v>
@@ -4349,7 +4367,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B315" t="s">
         <v>71</v>
@@ -4357,7 +4375,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B316" t="s">
         <v>17</v>
@@ -4365,7 +4383,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B317" t="s">
         <v>20</v>
@@ -4373,7 +4391,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B318" t="s">
         <v>5</v>
@@ -4381,15 +4399,15 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B319" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B320" t="s">
         <v>15</v>
@@ -4397,7 +4415,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B321" t="s">
         <v>13</v>
@@ -4405,7 +4423,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B322" t="s">
         <v>71</v>
@@ -4413,7 +4431,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B323" t="s">
         <v>71</v>
@@ -4421,7 +4439,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B324" t="s">
         <v>71</v>
@@ -4429,15 +4447,15 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B325" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B326" t="s">
         <v>17</v>
@@ -4445,7 +4463,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B327" t="s">
         <v>71</v>
@@ -4453,7 +4471,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B328" t="s">
         <v>17</v>
@@ -4461,7 +4479,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B329" t="s">
         <v>5</v>
@@ -4469,7 +4487,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B330" t="s">
         <v>20</v>
@@ -4477,7 +4495,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B331" t="s">
         <v>5</v>
@@ -4485,7 +4503,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B332" t="s">
         <v>3</v>
@@ -4493,7 +4511,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B333" t="s">
         <v>13</v>
@@ -4501,7 +4519,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B334" t="s">
         <v>3</v>
@@ -4509,7 +4527,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B335" t="s">
         <v>15</v>
@@ -4517,7 +4535,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B336" t="s">
         <v>13</v>
@@ -4525,15 +4543,15 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B337" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B338" t="s">
         <v>27</v>
@@ -4541,7 +4559,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B339" t="s">
         <v>5</v>
@@ -4549,7 +4567,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B340" t="s">
         <v>5</v>
@@ -4557,7 +4575,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B341" t="s">
         <v>3</v>
@@ -4565,7 +4583,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B342" t="s">
         <v>27</v>
@@ -4573,7 +4591,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B343" t="s">
         <v>37</v>
@@ -4581,7 +4599,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B344" t="s">
         <v>7</v>
@@ -4589,7 +4607,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B345" t="s">
         <v>13</v>
@@ -4597,7 +4615,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B346" t="s">
         <v>3</v>
@@ -4605,7 +4623,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B347" t="s">
         <v>11</v>
@@ -4613,7 +4631,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B348" t="s">
         <v>11</v>
@@ -4621,15 +4639,15 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B349" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B350" t="s">
         <v>7</v>
@@ -4637,7 +4655,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B351" t="s">
         <v>37</v>
@@ -4645,7 +4663,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B352" t="s">
         <v>37</v>
@@ -4653,7 +4671,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B353" t="s">
         <v>37</v>
@@ -4661,7 +4679,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B354" t="s">
         <v>7</v>
@@ -4669,7 +4687,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B355" t="s">
         <v>3</v>
@@ -4677,7 +4695,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B356" t="s">
         <v>37</v>
@@ -4685,7 +4703,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B357" t="s">
         <v>27</v>
@@ -4693,7 +4711,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B358" t="s">
         <v>37</v>
@@ -4701,7 +4719,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B359" t="s">
         <v>27</v>
@@ -4709,7 +4727,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B360" t="s">
         <v>11</v>
@@ -4717,15 +4735,15 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B361" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B362" t="s">
         <v>27</v>
@@ -4733,7 +4751,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B363" t="s">
         <v>11</v>
@@ -4741,7 +4759,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B364" t="s">
         <v>3</v>
@@ -4749,7 +4767,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B365" t="s">
         <v>37</v>
@@ -4757,7 +4775,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B366" t="s">
         <v>37</v>
@@ -4765,7 +4783,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B367" t="s">
         <v>27</v>
@@ -4773,7 +4791,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B368" t="s">
         <v>37</v>
@@ -4781,7 +4799,7 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B369" t="s">
         <v>3</v>
@@ -4789,7 +4807,7 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B370" t="s">
         <v>11</v>
@@ -4797,7 +4815,7 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B371" t="s">
         <v>11</v>
@@ -4805,7 +4823,7 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B372" t="s">
         <v>31</v>
@@ -4813,15 +4831,15 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B373" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B374" t="s">
         <v>128</v>
@@ -4829,7 +4847,7 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B375" t="s">
         <v>131</v>
@@ -4837,7 +4855,7 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B376" t="s">
         <v>115</v>
@@ -4845,7 +4863,7 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B377" t="s">
         <v>124</v>
@@ -4853,7 +4871,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B378" t="s">
         <v>128</v>
@@ -4861,7 +4879,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B379" t="s">
         <v>131</v>
@@ -4869,7 +4887,7 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B380" t="s">
         <v>163</v>
@@ -4877,7 +4895,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B381" t="s">
         <v>128</v>
@@ -4885,7 +4903,7 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B382" t="s">
         <v>163</v>
@@ -4893,7 +4911,7 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B383" t="s">
         <v>128</v>
@@ -4901,31 +4919,31 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B384" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B385" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B386" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B387" t="s">
         <v>128</v>
@@ -4933,15 +4951,15 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B388" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B389" t="s">
         <v>124</v>
@@ -4949,7 +4967,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B390" t="s">
         <v>128</v>
@@ -4957,47 +4975,47 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B391" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B392" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B393" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B394" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B395" t="s">
-        <v>191</v>
+        <v>427</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B396" t="s">
         <v>187</v>
@@ -5005,15 +5023,15 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B397" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B398" t="s">
         <v>128</v>
@@ -5021,7 +5039,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B399" t="s">
         <v>115</v>
@@ -5029,7 +5047,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B400" t="s">
         <v>128</v>
@@ -5037,7 +5055,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B401" t="s">
         <v>187</v>
@@ -5045,7 +5063,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B402" t="s">
         <v>187</v>
@@ -5053,7 +5071,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B403" t="s">
         <v>163</v>
@@ -5061,7 +5079,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B404" t="s">
         <v>187</v>
@@ -5069,15 +5087,15 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B405" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B406" t="s">
         <v>124</v>
@@ -5085,7 +5103,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B407" t="s">
         <v>128</v>
@@ -5093,23 +5111,23 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B408" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B409" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B410" t="s">
         <v>163</v>
@@ -5117,7 +5135,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B411" t="s">
         <v>187</v>
@@ -5125,7 +5143,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B412" t="s">
         <v>3</v>
@@ -5133,7 +5151,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B413" t="s">
         <v>17</v>
@@ -5141,7 +5159,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B414" t="s">
         <v>13</v>
@@ -5149,7 +5167,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B415" t="s">
         <v>115</v>
@@ -5157,7 +5175,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B416" t="s">
         <v>128</v>
@@ -5165,7 +5183,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B417" t="s">
         <v>187</v>
@@ -5173,15 +5191,15 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B418" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B419" t="s">
         <v>128</v>
@@ -5189,23 +5207,23 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B420" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B421" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B422" t="s">
         <v>124</v>
@@ -5213,7 +5231,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B423" t="s">
         <v>128</v>
@@ -5221,72 +5239,119 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B424" t="s">
-        <v>191</v>
+        <v>427</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B425" t="s">
-        <v>191</v>
+        <v>427</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
+        <v>458</v>
+      </c>
+      <c r="B426" t="s">
         <v>459</v>
-      </c>
-      <c r="B426" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
+        <v>460</v>
+      </c>
+      <c r="B427" t="s">
         <v>461</v>
-      </c>
-      <c r="B427" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B428" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
+        <v>463</v>
+      </c>
+      <c r="B429" t="s">
         <v>464</v>
-      </c>
-      <c r="B429" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B430" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
+        <v>466</v>
+      </c>
+      <c r="B431" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
         <v>467</v>
       </c>
-      <c r="B431" t="s">
-        <v>462</v>
+      <c r="B432" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>469</v>
+      </c>
+      <c r="B433" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>470</v>
+      </c>
+      <c r="B434" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>471</v>
+      </c>
+      <c r="B435" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>472</v>
+      </c>
+      <c r="B436" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>473</v>
+      </c>
+      <c r="B437" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/US/data/CBS/NFIB/Plans to Increase Employment.xlsx
+++ b/US/data/CBS/NFIB/Plans to Increase Employment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1468A0E-F896-44AF-824D-52983AF7FF4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2318FFF-5096-4BE9-B99E-17CD26E203BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="18195" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="476">
   <si>
     <t>Month/Year</t>
   </si>
@@ -37,48 +37,48 @@
     <t>1986/2/1</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>1986/3/1</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>1986/4/1</t>
+  </si>
+  <si>
+    <t>1986/5/1</t>
+  </si>
+  <si>
+    <t>1986/6/1</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1986/7/1</t>
+  </si>
+  <si>
+    <t>1986/8/1</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1986/9/1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1986/10/1</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
-    <t>1986/3/1</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>1986/4/1</t>
-  </si>
-  <si>
-    <t>1986/5/1</t>
-  </si>
-  <si>
-    <t>1986/6/1</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>1986/7/1</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>1986/8/1</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>1986/9/1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1986/10/1</t>
-  </si>
-  <si>
     <t>1986/11/1</t>
   </si>
   <si>
@@ -406,12 +406,15 @@
     <t>1995/2/1</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>1995/3/1</t>
+  </si>
+  <si>
     <t>18</t>
   </si>
   <si>
-    <t>1995/3/1</t>
-  </si>
-  <si>
     <t>1995/4/1</t>
   </si>
   <si>
@@ -511,9 +514,6 @@
     <t>1997/11/1</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>1997/12/1</t>
   </si>
   <si>
@@ -934,39 +934,39 @@
     <t>2009/2/1</t>
   </si>
   <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>2009/3/1</t>
+  </si>
+  <si>
+    <t>-8</t>
+  </si>
+  <si>
+    <t>2009/4/1</t>
+  </si>
+  <si>
+    <t>-4</t>
+  </si>
+  <si>
+    <t>2009/5/1</t>
+  </si>
+  <si>
+    <t>2009/6/1</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>2009/7/1</t>
+  </si>
+  <si>
     <t>-3</t>
   </si>
   <si>
-    <t>2009/3/1</t>
-  </si>
-  <si>
-    <t>-8</t>
-  </si>
-  <si>
-    <t>2009/4/1</t>
-  </si>
-  <si>
-    <t>-4</t>
-  </si>
-  <si>
-    <t>2009/5/1</t>
-  </si>
-  <si>
-    <t>2009/6/1</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>2009/7/1</t>
-  </si>
-  <si>
     <t>2009/8/1</t>
   </si>
   <si>
-    <t>-2</t>
-  </si>
-  <si>
     <t>2009/9/1</t>
   </si>
   <si>
@@ -1442,6 +1442,12 @@
   </si>
   <si>
     <t>2022/4/1</t>
+  </si>
+  <si>
+    <t>2022/5/1</t>
+  </si>
+  <si>
+    <t>25</t>
   </si>
 </sst>
 </file>
@@ -1841,7 +1847,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B437"/>
+  <dimension ref="A1:B438"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1914,31 +1920,31 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
         <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
         <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1962,7 +1968,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2066,7 +2072,7 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2162,7 +2168,7 @@
         <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -2194,7 +2200,7 @@
         <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -2202,7 +2208,7 @@
         <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -2242,7 +2248,7 @@
         <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -2258,7 +2264,7 @@
         <v>62</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -2314,7 +2320,7 @@
         <v>69</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -2354,7 +2360,7 @@
         <v>77</v>
       </c>
       <c r="B63" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2378,7 +2384,7 @@
         <v>80</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2386,7 +2392,7 @@
         <v>81</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -2394,7 +2400,7 @@
         <v>82</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -2410,7 +2416,7 @@
         <v>84</v>
       </c>
       <c r="B70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -2426,7 +2432,7 @@
         <v>86</v>
       </c>
       <c r="B72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -2442,7 +2448,7 @@
         <v>88</v>
       </c>
       <c r="B74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -2458,7 +2464,7 @@
         <v>90</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -2466,7 +2472,7 @@
         <v>91</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -2482,7 +2488,7 @@
         <v>93</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -2506,7 +2512,7 @@
         <v>96</v>
       </c>
       <c r="B82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -2530,7 +2536,7 @@
         <v>99</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -2538,7 +2544,7 @@
         <v>100</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -2546,7 +2552,7 @@
         <v>101</v>
       </c>
       <c r="B87" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -2554,7 +2560,7 @@
         <v>102</v>
       </c>
       <c r="B88" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -2586,7 +2592,7 @@
         <v>106</v>
       </c>
       <c r="B92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -2602,7 +2608,7 @@
         <v>108</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -2610,7 +2616,7 @@
         <v>109</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -2642,7 +2648,7 @@
         <v>113</v>
       </c>
       <c r="B99" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2746,20 +2752,20 @@
         <v>129</v>
       </c>
       <c r="B112" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B113" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B114" t="s">
         <v>115</v>
@@ -2767,7 +2773,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B115" t="s">
         <v>7</v>
@@ -2775,7 +2781,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B116" t="s">
         <v>31</v>
@@ -2783,7 +2789,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B117" t="s">
         <v>31</v>
@@ -2791,7 +2797,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B118" t="s">
         <v>124</v>
@@ -2799,7 +2805,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B119" t="s">
         <v>37</v>
@@ -2807,7 +2813,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B120" t="s">
         <v>31</v>
@@ -2815,7 +2821,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B121" t="s">
         <v>31</v>
@@ -2823,23 +2829,23 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B122" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B124" t="s">
         <v>31</v>
@@ -2847,7 +2853,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B125" t="s">
         <v>115</v>
@@ -2855,7 +2861,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B126" t="s">
         <v>115</v>
@@ -2863,7 +2869,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B127" t="s">
         <v>124</v>
@@ -2871,7 +2877,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B128" t="s">
         <v>7</v>
@@ -2879,7 +2885,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B129" t="s">
         <v>31</v>
@@ -2887,7 +2893,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B130" t="s">
         <v>7</v>
@@ -2895,15 +2901,15 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B131" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B132" t="s">
         <v>31</v>
@@ -2911,7 +2917,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B133" t="s">
         <v>31</v>
@@ -2919,7 +2925,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B134" t="s">
         <v>115</v>
@@ -2927,15 +2933,15 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B135" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B136" t="s">
         <v>7</v>
@@ -2943,7 +2949,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B137" t="s">
         <v>115</v>
@@ -2951,7 +2957,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B138" t="s">
         <v>124</v>
@@ -2959,50 +2965,50 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B139" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B140" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B141" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B142" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B143" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B144" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -3010,7 +3016,7 @@
         <v>164</v>
       </c>
       <c r="B145" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -3018,7 +3024,7 @@
         <v>165</v>
       </c>
       <c r="B146" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -3026,7 +3032,7 @@
         <v>166</v>
       </c>
       <c r="B147" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -3042,7 +3048,7 @@
         <v>168</v>
       </c>
       <c r="B149" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -3050,7 +3056,7 @@
         <v>169</v>
       </c>
       <c r="B150" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -3066,7 +3072,7 @@
         <v>171</v>
       </c>
       <c r="B152" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -3074,7 +3080,7 @@
         <v>172</v>
       </c>
       <c r="B153" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -3090,7 +3096,7 @@
         <v>174</v>
       </c>
       <c r="B155" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -3106,7 +3112,7 @@
         <v>176</v>
       </c>
       <c r="B157" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -3122,7 +3128,7 @@
         <v>178</v>
       </c>
       <c r="B159" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -3162,7 +3168,7 @@
         <v>184</v>
       </c>
       <c r="B164" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -3186,7 +3192,7 @@
         <v>188</v>
       </c>
       <c r="B167" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -3194,7 +3200,7 @@
         <v>189</v>
       </c>
       <c r="B168" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -3210,7 +3216,7 @@
         <v>191</v>
       </c>
       <c r="B170" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -3218,7 +3224,7 @@
         <v>192</v>
       </c>
       <c r="B171" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -3234,7 +3240,7 @@
         <v>194</v>
       </c>
       <c r="B173" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -3258,7 +3264,7 @@
         <v>197</v>
       </c>
       <c r="B176" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -3266,7 +3272,7 @@
         <v>198</v>
       </c>
       <c r="B177" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -3274,7 +3280,7 @@
         <v>199</v>
       </c>
       <c r="B178" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -3306,7 +3312,7 @@
         <v>203</v>
       </c>
       <c r="B182" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -3314,7 +3320,7 @@
         <v>204</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -3378,7 +3384,7 @@
         <v>212</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -3466,7 +3472,7 @@
         <v>223</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -3482,7 +3488,7 @@
         <v>225</v>
       </c>
       <c r="B204" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -3498,7 +3504,7 @@
         <v>227</v>
       </c>
       <c r="B206" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -3506,7 +3512,7 @@
         <v>228</v>
       </c>
       <c r="B207" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -3586,7 +3592,7 @@
         <v>239</v>
       </c>
       <c r="B217" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -3602,7 +3608,7 @@
         <v>241</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -3610,7 +3616,7 @@
         <v>242</v>
       </c>
       <c r="B220" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -3618,7 +3624,7 @@
         <v>243</v>
       </c>
       <c r="B221" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -3642,7 +3648,7 @@
         <v>246</v>
       </c>
       <c r="B224" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -3666,7 +3672,7 @@
         <v>249</v>
       </c>
       <c r="B227" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -3674,7 +3680,7 @@
         <v>250</v>
       </c>
       <c r="B228" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -3698,7 +3704,7 @@
         <v>253</v>
       </c>
       <c r="B231" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -3746,7 +3752,7 @@
         <v>259</v>
       </c>
       <c r="B237" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -3794,7 +3800,7 @@
         <v>265</v>
       </c>
       <c r="B243" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -3818,7 +3824,7 @@
         <v>268</v>
       </c>
       <c r="B246" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -3834,7 +3840,7 @@
         <v>270</v>
       </c>
       <c r="B248" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -3842,7 +3848,7 @@
         <v>271</v>
       </c>
       <c r="B249" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -3866,7 +3872,7 @@
         <v>274</v>
       </c>
       <c r="B252" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -3890,7 +3896,7 @@
         <v>277</v>
       </c>
       <c r="B255" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -3978,7 +3984,7 @@
         <v>288</v>
       </c>
       <c r="B266" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -3986,7 +3992,7 @@
         <v>289</v>
       </c>
       <c r="B267" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -3994,7 +4000,7 @@
         <v>290</v>
       </c>
       <c r="B268" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -4018,7 +4024,7 @@
         <v>293</v>
       </c>
       <c r="B271" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -4026,7 +4032,7 @@
         <v>294</v>
       </c>
       <c r="B272" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -4034,7 +4040,7 @@
         <v>295</v>
       </c>
       <c r="B273" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -4042,7 +4048,7 @@
         <v>296</v>
       </c>
       <c r="B274" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -4122,15 +4128,15 @@
         <v>312</v>
       </c>
       <c r="B284" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B285" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -4162,7 +4168,7 @@
         <v>318</v>
       </c>
       <c r="B289" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -4170,7 +4176,7 @@
         <v>319</v>
       </c>
       <c r="B290" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -4178,7 +4184,7 @@
         <v>320</v>
       </c>
       <c r="B291" t="s">
-        <v>311</v>
+        <v>73</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -4202,7 +4208,7 @@
         <v>323</v>
       </c>
       <c r="B294" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
@@ -4218,7 +4224,7 @@
         <v>325</v>
       </c>
       <c r="B296" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -4234,7 +4240,7 @@
         <v>327</v>
       </c>
       <c r="B298" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -4258,7 +4264,7 @@
         <v>330</v>
       </c>
       <c r="B301" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -4266,7 +4272,7 @@
         <v>331</v>
       </c>
       <c r="B302" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -4274,7 +4280,7 @@
         <v>332</v>
       </c>
       <c r="B303" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -4314,7 +4320,7 @@
         <v>337</v>
       </c>
       <c r="B308" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -4354,7 +4360,7 @@
         <v>342</v>
       </c>
       <c r="B313" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -4370,7 +4376,7 @@
         <v>344</v>
       </c>
       <c r="B315" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -4378,7 +4384,7 @@
         <v>345</v>
       </c>
       <c r="B316" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -4394,7 +4400,7 @@
         <v>347</v>
       </c>
       <c r="B318" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -4410,7 +4416,7 @@
         <v>349</v>
       </c>
       <c r="B320" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -4418,7 +4424,7 @@
         <v>350</v>
       </c>
       <c r="B321" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
@@ -4458,7 +4464,7 @@
         <v>355</v>
       </c>
       <c r="B326" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -4466,7 +4472,7 @@
         <v>356</v>
       </c>
       <c r="B327" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -4474,7 +4480,7 @@
         <v>357</v>
       </c>
       <c r="B328" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
@@ -4482,7 +4488,7 @@
         <v>358</v>
       </c>
       <c r="B329" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -4498,7 +4504,7 @@
         <v>360</v>
       </c>
       <c r="B331" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
@@ -4514,7 +4520,7 @@
         <v>362</v>
       </c>
       <c r="B333" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -4530,7 +4536,7 @@
         <v>364</v>
       </c>
       <c r="B335" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
@@ -4538,7 +4544,7 @@
         <v>365</v>
       </c>
       <c r="B336" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -4546,7 +4552,7 @@
         <v>366</v>
       </c>
       <c r="B337" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
@@ -4570,7 +4576,7 @@
         <v>369</v>
       </c>
       <c r="B340" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
@@ -4610,7 +4616,7 @@
         <v>374</v>
       </c>
       <c r="B345" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
@@ -4658,7 +4664,7 @@
         <v>380</v>
       </c>
       <c r="B351" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
@@ -4754,7 +4760,7 @@
         <v>392</v>
       </c>
       <c r="B363" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
@@ -4834,7 +4840,7 @@
         <v>402</v>
       </c>
       <c r="B373" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
@@ -4842,7 +4848,7 @@
         <v>403</v>
       </c>
       <c r="B374" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
@@ -4850,7 +4856,7 @@
         <v>404</v>
       </c>
       <c r="B375" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
@@ -4874,7 +4880,7 @@
         <v>407</v>
       </c>
       <c r="B378" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
@@ -4882,7 +4888,7 @@
         <v>408</v>
       </c>
       <c r="B379" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
@@ -4890,7 +4896,7 @@
         <v>409</v>
       </c>
       <c r="B380" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
@@ -4898,7 +4904,7 @@
         <v>410</v>
       </c>
       <c r="B381" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
@@ -4906,7 +4912,7 @@
         <v>411</v>
       </c>
       <c r="B382" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
@@ -4914,7 +4920,7 @@
         <v>412</v>
       </c>
       <c r="B383" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
@@ -4930,7 +4936,7 @@
         <v>415</v>
       </c>
       <c r="B385" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
@@ -4970,7 +4976,7 @@
         <v>420</v>
       </c>
       <c r="B390" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
@@ -5034,7 +5040,7 @@
         <v>430</v>
       </c>
       <c r="B398" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
@@ -5042,7 +5048,7 @@
         <v>431</v>
       </c>
       <c r="B399" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
@@ -5050,7 +5056,7 @@
         <v>432</v>
       </c>
       <c r="B400" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
@@ -5074,7 +5080,7 @@
         <v>435</v>
       </c>
       <c r="B403" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
@@ -5106,7 +5112,7 @@
         <v>439</v>
       </c>
       <c r="B407" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
@@ -5122,7 +5128,7 @@
         <v>441</v>
       </c>
       <c r="B409" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
@@ -5130,7 +5136,7 @@
         <v>442</v>
       </c>
       <c r="B410" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
@@ -5138,7 +5144,7 @@
         <v>443</v>
       </c>
       <c r="B411" t="s">
-        <v>187</v>
+        <v>427</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
@@ -5154,7 +5160,7 @@
         <v>445</v>
       </c>
       <c r="B413" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
@@ -5162,7 +5168,7 @@
         <v>446</v>
       </c>
       <c r="B414" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
@@ -5178,7 +5184,7 @@
         <v>448</v>
       </c>
       <c r="B416" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
@@ -5202,7 +5208,7 @@
         <v>451</v>
       </c>
       <c r="B419" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
@@ -5330,7 +5336,7 @@
         <v>471</v>
       </c>
       <c r="B435" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
@@ -5347,11 +5353,20 @@
       </c>
       <c r="B437" t="s">
         <v>187</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>474</v>
+      </c>
+      <c r="B438" t="s">
+        <v>475</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>